--- a/Assets/100_Data/CSVData/XlsxFiles/Engine_Data.xlsx
+++ b/Assets/100_Data/CSVData/XlsxFiles/Engine_Data.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Engine_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -118,6 +119,19 @@
   </si>
   <si>
     <t>보라 엔진 Lv.4</t>
+  </si>
+  <si>
+    <t>노랑 엔진 Lv.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑 엔진 Lv.2</t>
+  </si>
+  <si>
+    <t>노랑 엔진 Lv.3</t>
+  </si>
+  <si>
+    <t>노랑 엔진 Lv.4</t>
   </si>
 </sst>
 </file>
@@ -854,8 +868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F19" totalsRowShown="0">
-  <autoFilter ref="A1:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="6" name="EngineId"/>
@@ -1131,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1486,34 +1500,114 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
+        <v>205001</v>
+      </c>
+      <c r="B18">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>205002</v>
+      </c>
+      <c r="B19">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>205003</v>
+      </c>
+      <c r="B20">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>205004</v>
+      </c>
+      <c r="B21">
+        <v>205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>211001</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>211002</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E23" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
